--- a/02_MasterWifoMannheim/99_Backup/Course63.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course63.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D0DB4B639A20115952D0B7674DF9A8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E7F4EEA-2BDE-4003-AEF4-FECA5E4B123C}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Modul</t>
-  </si>
-  <si>
-    <t>TAX 631 Internationale Konzernbesteuerung</t>
-  </si>
-  <si>
-    <t>Lerninhalte</t>
-  </si>
-  <si>
-    <t> Besteuerung von international tätigen, integrierten besteuerung (u.a. Betriebsstättenbesteuerung, Quellensteuern, steuer  Implikationen von aktuellen Besteuerung (u.a. ufbau von Funktionen, Dienstleistungen und IP)</t>
-  </si>
-  <si>
-    <t>Lern- und Qualifikationsziele</t>
-  </si>
-  <si>
-    <t>Die Teilnehmer erlernen bedeutende Grundlagen der Besteuerung von international tätigen Konzernen. Dabei wird theoretisches authentischen Problemen in praktisches Steuerwissen überführt. Die Teilnehmer können die Wirkung von relevanten Steuerregelungen auf Entscheidungen internationaler Konzerne und deren Wechselwirkungen beurteilen. Die Lerninhalte werden den Teilnehmern problemorientiert und über das authentisch konstruierten Problemen in Kleingruppen vermittelt.</t>
-  </si>
-  <si>
-    <t>Voraussetzungen</t>
-  </si>
-  <si>
-    <t>Anmeldepflicht</t>
-  </si>
-  <si>
-    <t>Weitere Infos zur Anmeldung: -</t>
-  </si>
-  <si>
-    <t>Lehrveranstaltungen und -formPräsenzstudiumSelbststudium Vorlesung / Übung 2 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Prüfungsform und -umfang</t>
-  </si>
-  <si>
-    <t>Schriftliche Klausur (45 min.)</t>
-  </si>
-  <si>
-    <t>Vorleistungen</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Dozent(en)/Modulverantwortlicher</t>
-  </si>
-  <si>
-    <t>Dr. Sven-Eric Bärsch (Dozent) / Prof. Dr. Christoph Spengel (Modulverantwortlicher)</t>
-  </si>
-  <si>
-    <t>Dauer des Moduls</t>
-  </si>
-  <si>
-    <t>1 Semester</t>
-  </si>
-  <si>
-    <t>Angebotsturnus</t>
-  </si>
-  <si>
-    <t>FSS</t>
-  </si>
-  <si>
-    <t>Sprache</t>
-  </si>
-  <si>
-    <t>Deutsch</t>
-  </si>
-  <si>
-    <t>Programmspezifische Lernziele</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>benotet</t>
-  </si>
-  <si>
-    <t>Verwendbarkeit</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. Wipäd, M.Sc. Wirt.Inf., M.Sc. VWL, LL.M.</t>
-  </si>
-  <si>
-    <t>TAX 520, TAX 530, TAX 630</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,143 +420,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Modul</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TAX 631 Internationale Konzernbesteuerung</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lerninhalte</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t> Besteuerung von international tätigen, integrierten besteuerung (u.a. Betriebsstättenbesteuerung, Quellensteuern, steuer  Implikationen von aktuellen Besteuerung (u.a. ufbau von Funktionen, Dienstleistungen und IP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lern- und Qualifikationsziele</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Die Teilnehmer erlernen bedeutende Grundlagen der Besteuerung von international tätigen Konzernen. Dabei wird theoretisches authentischen Problemen in praktisches Steuerwissen überführt. Die Teilnehmer können die Wirkung von relevanten Steuerregelungen auf Entscheidungen internationaler Konzerne und deren Wechselwirkungen beurteilen. Die Lerninhalte werden den Teilnehmern problemorientiert und über das authentisch konstruierten Problemen in Kleingruppen vermittelt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Voraussetzungen</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TAX 520, TAX 530, TAX 630</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Anmeldepflicht</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Weitere Infos zur Anmeldung: -</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lehrveranstaltungen und -formPräsenzstudiumSelbststudium Vorlesung / Übung 2 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Prüfungsform und -umfang</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Schriftliche Klausur (45 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Vorleistungen</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dozent(en)/Modulverantwortlicher</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dr. Sven-Eric Bärsch (Dozent) / Prof. Dr. Christoph Spengel (Modulverantwortlicher)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dauer des Moduls</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sprache</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Programmspezifische Lernziele</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>benotet</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Verwendbarkeit</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. Wipäd, M.Sc. Wirt.Inf., M.Sc. VWL, LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
